--- a/public/templates/qms_qme_report_template.xlsx
+++ b/public/templates/qms_qme_report_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dilg4a_portal\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\dilg4a_portal\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12890"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -169,12 +169,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -183,6 +177,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -537,39 +537,39 @@
   </sheetPr>
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.125" customWidth="1"/>
+    <col min="1" max="1" width="1.08203125" customWidth="1"/>
     <col min="2" max="3" width="2.25" customWidth="1"/>
-    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
     <col min="5" max="6" width="3.5" customWidth="1"/>
     <col min="22" max="22" width="9.25" customWidth="1"/>
     <col min="23" max="23" width="9.75" customWidth="1"/>
-    <col min="24" max="24" width="1.125" customWidth="1"/>
+    <col min="24" max="24" width="1.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U1" s="4" t="s">
+    <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-    </row>
-    <row r="2" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-    </row>
-    <row r="3" spans="1:24" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+    </row>
+    <row r="3" spans="1:24" ht="22.5" x14ac:dyDescent="0.45">
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
@@ -584,279 +584,279 @@
       </c>
       <c r="X3" s="9"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-    </row>
-    <row r="10" spans="1:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+    </row>
+    <row r="10" spans="1:24" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-    </row>
-    <row r="15" spans="1:24" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="1:24" ht="8.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="12">
@@ -874,11 +874,11 @@
     <mergeCell ref="W4:X4"/>
   </mergeCells>
   <pageMargins left="0.44" right="0.4" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;9 
  &amp;8
- &amp;P of &amp;N</oddHeader>
+&amp;P of &amp;N</oddHeader>
     <evenHeader>&amp;R&amp;8 
  &amp;8
  &amp;P of &amp;N</evenHeader>
